--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.039</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.437</v>
+        <v>18.482</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.209</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.233</v>
+        <v>19.905</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.192</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.187</v>
+        <v>14.555</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.60339541705529</v>
+        <v>-8.882725129017313</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.31723928794617</v>
+        <v>18.99822238473569</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.77298392435507</v>
+        <v>23.923860000188</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.93764295791907</v>
+        <v>-6.118058824937656</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.82388410734885</v>
+        <v>10.75099013136955</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.34422925204943</v>
+        <v>16.7847379545045</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.20546449563865</v>
+        <v>7.816678438629438</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.69378439202903</v>
+        <v>21.22144224853264</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.11329839969295</v>
+        <v>25.27865523828141</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.38208086673698</v>
+        <v>24.13741254970421</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.9925961865934</v>
+        <v>31.63811395424021</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.23007106789456</v>
+        <v>35.45612207290313</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.31922571779162</v>
+        <v>0.2872261546114778</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.96304617906765</v>
+        <v>20.38070615287434</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.6764869201068</v>
+        <v>26.975364252087</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.05965470477297</v>
+        <v>-6.593351774900892</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.81362425503723</v>
+        <v>23.69123549252499</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.27979632710527</v>
+        <v>30.4297365204267</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.41973588818848</v>
+        <v>-8.373848154688407</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.3476739684202</v>
+        <v>11.14033953378086</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.8787774951815</v>
+        <v>19.06507657625987</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.68667008956402</v>
+        <v>7.557085170812261</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.21398730914038</v>
+        <v>23.22206402830947</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.64348227707077</v>
+        <v>28.92701927077839</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.94619821409285</v>
+        <v>29.36225698403537</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.59127097641745</v>
+        <v>38.83957296056961</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36.83822318489561</v>
+        <v>44.25161864251949</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.86938877665938</v>
+        <v>3.085947412755427</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.55969790143664</v>
+        <v>27.29114527254915</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.2854462265774</v>
+        <v>35.43499928896497</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.51226153245661</v>
+        <v>-3.674971258563211</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.20601573306389</v>
+        <v>28.63786378270854</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.66516290228253</v>
+        <v>36.40275910049456</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.02702116742919</v>
+        <v>-5.166991595523246</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.89326878564681</v>
+        <v>16.55441807083588</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.41713713207911</v>
+        <v>25.70638072521358</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.25950543642945</v>
+        <v>13.62936717632236</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.72939323204626</v>
+        <v>31.29759392540167</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>37.15194223899471</v>
+        <v>38.04123842940039</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.50701036104714</v>
+        <v>40.71202402503468</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.10617161726596</v>
+        <v>50.52318936354455</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43.34756621550633</v>
+        <v>56.05730248268863</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.41260895036841</v>
+        <v>11.62961620600408</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.03283761057534</v>
+        <v>38.62158562830214</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.75061119667077</v>
+        <v>47.9427235113405</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.98520347610219</v>
+        <v>-1.925653550337511</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.7568205496491</v>
+        <v>28.18467544361094</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.21196934975008</v>
+        <v>32.67448222533098</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.26834807520132</v>
+        <v>0.7900537386575799</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.21464740517481</v>
+        <v>20.20696971310292</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.73417668045576</v>
+        <v>25.73067782540561</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.55989240094625</v>
+        <v>16.34256835622482</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.10433986439594</v>
+        <v>31.98878579783611</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.52317079770663</v>
+        <v>35.60108543406359</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.72995176290895</v>
+        <v>33.73649755073976</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.38591417909627</v>
+        <v>42.2070001593826</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.62158333022021</v>
+        <v>45.33212042289014</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.65607141051899</v>
+        <v>7.690877245581344</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.3676001613415</v>
+        <v>30.65733744843119</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.08013914307431</v>
+        <v>36.63238431841642</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.47149510588379</v>
+        <v>-1.748485202888414</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.28353764929962</v>
+        <v>30.77781938035481</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.74909959865064</v>
+        <v>37.04878799123223</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>19.78095703155331</v>
+        <v>-3.52499746853881</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.76926078322849</v>
+        <v>18.54247978572889</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.29953128631173</v>
+        <v>25.92090221977013</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.0716524992507</v>
+        <v>14.02006577395041</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.65538324382052</v>
+        <v>31.93362222464418</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.084179403126</v>
+        <v>37.16251981023003</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.32524268269129</v>
+        <v>36.99503522215507</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33.01596733443512</v>
+        <v>47.39151309501089</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.26107532871148</v>
+        <v>52.141214738299</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.23728267563109</v>
+        <v>8.65273221284567</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.99565059462998</v>
+        <v>35.72199211676797</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.72047718365754</v>
+        <v>43.21419417066042</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.13672162146352</v>
+        <v>1.174765982776844</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.88752432377926</v>
+        <v>35.73841146324874</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.34628595881768</v>
+        <v>43.05398179406956</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.60315989120922</v>
+        <v>-0.4381652618228173</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.52869756251231</v>
+        <v>23.84732960803232</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.05197229052938</v>
+        <v>32.4683562157436</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.85932127574045</v>
+        <v>20.01655388009181</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.38462227838102</v>
+        <v>39.94354633633021</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.80668795398253</v>
+        <v>46.22579384544161</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.10207919725966</v>
+        <v>48.2599261940713</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>39.74610460784344</v>
+        <v>59.0359281908449</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>40.98578972515462</v>
+        <v>63.90744781777182</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.99573444753896</v>
+        <v>17.15072647663874</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.682804704303</v>
+        <v>47.02556201069179</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.39993521604973</v>
+        <v>55.69999595046153</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.98520347610219</v>
+        <v>-3.730728670562328</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.7568205496491</v>
+        <v>26.15291647991443</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.21196934975008</v>
+        <v>30.48734221661644</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.26834807520132</v>
+        <v>-1.200076301448231</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.21464740517481</v>
+        <v>17.95854592956696</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.73417668045576</v>
+        <v>23.31067886354547</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.55989240094625</v>
+        <v>14.29578066094678</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.10433986439594</v>
+        <v>29.71215996820044</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.52317079770663</v>
+        <v>33.17067598059745</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.72995176290895</v>
+        <v>31.76536399712907</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.38591417909627</v>
+        <v>40.08925367435805</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.62158333022021</v>
+        <v>43.10702164847256</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.65607141051899</v>
+        <v>5.902256432579346</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.3676001613415</v>
+        <v>28.59112148431025</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.08013914307431</v>
+        <v>34.36866253649875</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.47149510588379</v>
+        <v>-2.844901182519472</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.28353764929962</v>
+        <v>29.45344008517488</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>27.74909959865064</v>
+        <v>35.56693626021593</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.78095703155331</v>
+        <v>-4.804216141367135</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.76926078322849</v>
+        <v>17.0032104130754</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.29953128631173</v>
+        <v>24.20778358580273</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.0716524992507</v>
+        <v>12.69419100629544</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.65538324382052</v>
+        <v>30.37623831426471</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.084179403126</v>
+        <v>35.44953117675929</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.32524268269129</v>
+        <v>35.71209167696338</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.01596733443512</v>
+        <v>45.95148700045115</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>34.26107532871148</v>
+        <v>50.58866980651663</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.23728267563109</v>
+        <v>7.543270356078075</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.99565059462998</v>
+        <v>34.33183133504707</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.72047718365754</v>
+        <v>41.62325151355982</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.13672162146352</v>
+        <v>0.2028474383568764</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.88752432377926</v>
+        <v>34.54696630264952</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.34628595881768</v>
+        <v>41.70921671299837</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.60315989120922</v>
+        <v>-1.617351358210609</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.52869756251231</v>
+        <v>22.4172541107002</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.05197229052938</v>
+        <v>30.86921987252349</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.85932127574045</v>
+        <v>18.80295410535474</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>33.38462227838102</v>
+        <v>38.50654207753264</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.80668795398253</v>
+        <v>44.63736460750842</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>35.10207919725966</v>
+        <v>47.08688640084664</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>39.74610460784344</v>
+        <v>57.70841242817833</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>40.98578972515462</v>
+        <v>62.46455919968798</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.99573444753896</v>
+        <v>16.13644853023374</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.682804704303</v>
+        <v>45.74074269260703</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>42.39993521604973</v>
+        <v>54.21890615740693</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.88853990559512</v>
+        <v>-11.40610008273118</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.61620560570251</v>
+        <v>15.93476177873636</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.07539361533136</v>
+        <v>20.73483064413194</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>18.18816178031101</v>
+        <v>-8.794727178609193</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.08864323327573</v>
+        <v>7.493099243542748</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.61257292756164</v>
+        <v>13.36962472866617</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.46270878691996</v>
+        <v>4.851487216391366</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.96431113172038</v>
+        <v>17.74177349348761</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.38717314340564</v>
+        <v>21.66588614533886</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.64853493517493</v>
+        <v>20.25492420110114</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.27044539465551</v>
+        <v>27.53255193234299</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.51073504863942</v>
+        <v>31.34171378328397</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.59308247294455</v>
+        <v>-3.05187354768254</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>32.25297866636889</v>
+        <v>16.37844708026661</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.97047724372385</v>
+        <v>22.76881058874637</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>21.35674295393012</v>
+        <v>-9.364635774141295</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.12466415189147</v>
+        <v>20.3569390784889</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.59432146496313</v>
+        <v>26.96655673399181</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>20.68227286688002</v>
+        <v>-11.28833716302341</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.62458561139517</v>
+        <v>7.617888388665254</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.15931688857523</v>
+        <v>15.38167330281454</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.95594458839213</v>
+        <v>4.338353606125455</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.49666979722441</v>
+        <v>19.46569098232029</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.92955288055787</v>
+        <v>25.03439037800311</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.22488050415793</v>
+        <v>25.23363743884847</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.88145834336265</v>
+        <v>34.47295590213682</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.13125902877667</v>
+        <v>39.88617350427069</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.15538489413473</v>
+        <v>-0.4826999822540756</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.86192014749264</v>
+        <v>23.02705684998014</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.59177543242494</v>
+        <v>30.96474914233149</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.90098420449548</v>
+        <v>-5.895889904630092</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.60858507405713</v>
+        <v>25.86540853141475</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.0712184440801</v>
+        <v>33.50550809424531</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.38241959265278</v>
+        <v>-7.543456363605362</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.26293286745725</v>
+        <v>13.5829288373161</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.79042970420281</v>
+        <v>22.57767394615508</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.62156801691578</v>
+        <v>10.96183482531563</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.10476249273847</v>
+        <v>28.10359528222632</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.53069937073741</v>
+        <v>34.71444529965784</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.87872323479519</v>
+        <v>37.13932836998192</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>40.48931178553676</v>
+        <v>46.71262443216445</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>41.73354520161405</v>
+        <v>52.24981700439038</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.79109442848208</v>
+        <v>8.606755415675021</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.42742451001873</v>
+        <v>34.91695343215709</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.14930710245702</v>
+        <v>44.03239250158927</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.72417859530813</v>
+        <v>-3.090299296988331</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.43738660076138</v>
+        <v>25.628107887128</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.89141169036391</v>
+        <v>30.44232416531595</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20.05630195413996</v>
+        <v>-0.08691723196277934</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.94191166322268</v>
+        <v>17.72767550324662</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.46046331336768</v>
+        <v>23.62278546233186</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.32408184996496</v>
+        <v>14.24255357808785</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.81180378929547</v>
+        <v>28.48718493677731</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.22963812672862</v>
+        <v>32.4271409302448</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.49168958764463</v>
+        <v>30.84875284837563</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.10168245066631</v>
+        <v>38.77228683535741</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.33765426910075</v>
+        <v>42.57657468586544</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.42619278869732</v>
+        <v>6.261295374915594</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.06934083173585</v>
+        <v>27.34804936995437</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.78076645354709</v>
+        <v>33.77108271236372</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.19080302850164</v>
+        <v>0.7382272015579794</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.9441340481699</v>
+        <v>31.84905692226952</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.40855821033358</v>
+        <v>38.44820451945546</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.54883438374034</v>
+        <v>-0.7779252933739293</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.47613769519822</v>
+        <v>19.66709848064</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.00541772363373</v>
+        <v>27.42099135534956</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.81573897876706</v>
+        <v>15.57225608313036</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.3424551467192</v>
+        <v>32.06494539456611</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.77024246977149</v>
+        <v>37.62453900193506</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.06624950651612</v>
+        <v>37.73039242730275</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.71079961963898</v>
+        <v>47.62643597850467</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.95622159425458</v>
+        <v>53.01618874173558</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.98673058322187</v>
+        <v>10.74426255719633</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.67636393249145</v>
+        <v>35.92595720811666</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.40006312842146</v>
+        <v>43.86590349991647</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.64987093501679</v>
+        <v>2.348931520393712</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.34296750278284</v>
+        <v>35.46927895499559</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.80043856449714</v>
+        <v>43.11001851010261</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.16254683390011</v>
+        <v>1.103144255842292</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.02813714722335</v>
+        <v>23.73509580451956</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.55025628480851</v>
+        <v>32.73228390965582</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.39503859967203</v>
+        <v>20.29746862113564</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.86430541506647</v>
+        <v>38.77515978554364</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>37.28521600297572</v>
+        <v>45.38784644058607</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>37.63368940315405</v>
+        <v>47.74170762996316</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>42.23232690694449</v>
+        <v>57.96055854534295</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>43.47225229323642</v>
+        <v>63.47652249310012</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.53657689522775</v>
+        <v>17.9726106990543</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>43.15610177497983</v>
+        <v>45.92185030254012</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>44.87191008092239</v>
+        <v>55.05192125907946</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.69528850033479</v>
+        <v>-4.641537341657315</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.37104202674763</v>
+        <v>25.49401120909729</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.8031630433991</v>
+        <v>29.91030253150311</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.93098530706888</v>
+        <v>-1.426201684417737</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.77822286484166</v>
+        <v>18.14923415792819</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.27377263848985</v>
+        <v>23.58149786438029</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.2101864228425</v>
+        <v>13.7984031734266</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.66224325095141</v>
+        <v>29.61572769564983</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.05864334278071</v>
+        <v>33.16759923484602</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>23.26212286059653</v>
+        <v>31.00141325592092</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.84167562297231</v>
+        <v>39.58178613293691</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.05786614156858</v>
+        <v>42.81810145111126</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.22262716881675</v>
+        <v>5.112901282636216</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.82252609737425</v>
+        <v>28.0754417305876</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.50815266557873</v>
+        <v>33.9690404001153</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>18.1867569974137</v>
+        <v>1.139726441837102</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.90245935778504</v>
+        <v>33.69807497881852</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.34481883191813</v>
+        <v>39.84162578770351</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>17.44864292897473</v>
+        <v>-0.05847239466724119</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.33738694089995</v>
+        <v>22.17696814044508</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.84349817517497</v>
+        <v>29.40347711376668</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>18.72700030185914</v>
+        <v>17.23009554721708</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.21787605835663</v>
+        <v>35.3233893225258</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.62407410569752</v>
+        <v>40.43913707030067</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.86155324137654</v>
+        <v>40.03478868758616</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.47545159830128</v>
+        <v>50.55632956135143</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.70092192384629</v>
+        <v>55.36209754582749</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.80798072859589</v>
+        <v>11.8380968091619</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>31.45416334576986</v>
+        <v>38.90913521432448</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.15187228151055</v>
+        <v>46.26067724429617</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.86864430697698</v>
+        <v>3.428970893355881</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.52433897156338</v>
+        <v>37.9616692390525</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.96015374705062</v>
+        <v>45.15288405098755</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.28611213344267</v>
+        <v>2.406404331683287</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.11336087143371</v>
+        <v>26.79160603311969</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.61274091432116</v>
+        <v>35.2641347997024</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.53044823163693</v>
+        <v>22.54624840943407</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.96407906031462</v>
+        <v>42.59084977844654</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.36379810996267</v>
+        <v>48.763404800812</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.65445436127543</v>
+        <v>50.56653695088635</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>37.22263300429698</v>
+        <v>61.43203936562466</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.44285023290647</v>
+        <v>66.35713614515149</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.58191573337119</v>
+        <v>19.64228325855033</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>38.15823747963537</v>
+        <v>49.44381013384069</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>39.84854353747694</v>
+        <v>57.98236142193448</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.62580960758384</v>
+        <v>-13.17374077792465</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.30426810765437</v>
+        <v>14.58970642930759</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.73955668220481</v>
+        <v>19.21234750160941</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.86608359658018</v>
+        <v>-10.4665392067254</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.71607123000411</v>
+        <v>6.446035368034416</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.2149325568942</v>
+        <v>12.13666329594021</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.14551481234</v>
+        <v>3.755884603752495</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.60015076092959</v>
+        <v>17.20912255254279</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.99965070511786</v>
+        <v>20.97935600354196</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.21220784546298</v>
+        <v>20.05412915984563</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.79389581645233</v>
+        <v>27.45966619942683</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.01284984349548</v>
+        <v>30.6861233521372</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.17523254583992</v>
+        <v>-3.844343354802888</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.77817175150336</v>
+        <v>16.28347683697179</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.46752300504746</v>
+        <v>22.47695930427655</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.10375366607189</v>
+        <v>-10.19845971007139</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.82218233810125</v>
+        <v>20.00531173572992</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.26775613696726</v>
+        <v>26.42649198169931</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.37012569674676</v>
+        <v>-11.93972644634814</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.26164276257894</v>
+        <v>7.656952466171937</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.77111486062944</v>
+        <v>15.22421948984241</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>18.64869341498458</v>
+        <v>4.297096009306447</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.14216971221558</v>
+        <v>20.04555238668835</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.55151360772105</v>
+        <v>25.45181387444288</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.79804307462698</v>
+        <v>26.0164269176775</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.41409227375568</v>
+        <v>35.35836750117476</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.64237044351399</v>
+        <v>40.17761329831384</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.74707807312878</v>
+        <v>-0.2517366111009416</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.39632605776639</v>
+        <v>24.01065794922546</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.09781559355625</v>
+        <v>31.74365174223891</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.77584554805004</v>
+        <v>-5.202121441370402</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.43428259866861</v>
+        <v>27.02917355525916</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.87319983833218</v>
+        <v>34.46645060075664</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.19784468688053</v>
+        <v>-6.754817153397827</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.02788724918619</v>
+        <v>15.04943623780484</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.5305120965531</v>
+        <v>23.8294655742167</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.44232924533523</v>
+        <v>12.38573400505286</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.87857839414108</v>
+        <v>30.13715631640818</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>32.28133519758023</v>
+        <v>36.57036623276165</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.5808910423986</v>
+        <v>39.29585756527243</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.15121486239929</v>
+        <v>49.00942779584832</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.37414536491379</v>
+        <v>53.93704776893031</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.51097294550861</v>
+        <v>10.23185929526977</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.09038693212485</v>
+        <v>37.28269066677075</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>39.78434263269665</v>
+        <v>46.1769261544412</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>19.94265302614571</v>
+        <v>-19.4321831065256</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.72065577447053</v>
+        <v>9.014170445275358</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.19045023422407</v>
+        <v>13.80377034237926</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.25249731942318</v>
+        <v>-16.75691873794943</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.20487669716733</v>
+        <v>0.7310723161248731</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.73989252100167</v>
+        <v>6.594876509795967</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>20.53795148638417</v>
+        <v>-2.639959796414349</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.08795053313206</v>
+        <v>11.30982804274874</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.52117425132526</v>
+        <v>15.21995547305336</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.7684623494406</v>
+        <v>13.67133895269094</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.43065372597308</v>
+        <v>21.5190258703169</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.67978231909857</v>
+        <v>25.31022035003357</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.69041526021742</v>
+        <v>-10.64128286257123</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.40893329758737</v>
+        <v>10.10943009563883</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.13894307811736</v>
+        <v>16.47789574484598</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>22.45039469562025</v>
+        <v>-16.98841603229547</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.26902103288994</v>
+        <v>13.84829589062112</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.74933882226931</v>
+        <v>20.43519622868442</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>21.7866422151653</v>
+        <v>-18.84328141977616</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.78123403349932</v>
+        <v>1.272326796143197</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.32710660057024</v>
+        <v>9.008656720295342</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.07117554240664</v>
+        <v>-2.717279599313787</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.66065372780338</v>
+        <v>13.4779351438496</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.10394969738888</v>
+        <v>19.01980853506694</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.38562264388983</v>
+        <v>19.15991560838922</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.08278678331617</v>
+        <v>28.97759440994958</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.34147178564084</v>
+        <v>34.37111036694661</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.29333311833615</v>
+        <v>-7.541537837509143</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.0589166687499</v>
+        <v>17.30218880234709</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.8013463368959</v>
+        <v>25.20041671761987</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.04293633758213</v>
+        <v>-14.74833500468138</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.80063241962542</v>
+        <v>18.11433832020257</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.27396580271663</v>
+        <v>25.75153729837864</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.53595842431066</v>
+        <v>-16.34910195052713</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.468122731466</v>
+        <v>5.97167292680782</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.00680230242187</v>
+        <v>14.96079106222803</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.78571823651544</v>
+        <v>2.643734451248253</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.31708171438359</v>
+        <v>20.84024808613334</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.75346789345848</v>
+        <v>27.44355572643833</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.08857123980133</v>
+        <v>29.8161497349837</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.73929659103968</v>
+        <v>39.96990827830723</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.99243227017118</v>
+        <v>45.49076909969291</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.97818630962623</v>
+        <v>0.3129768828984218</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.67284974143477</v>
+        <v>27.94615735757184</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>44.40735596448</v>
+        <v>37.04248034377828</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.41542017627079</v>
+        <v>5.313510551341192</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.13781700079324</v>
+        <v>35.97140065649228</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.58235002372147</v>
+        <v>40.49632886722404</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.70272592059409</v>
+        <v>9.15197505111912</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.59803566951408</v>
+        <v>29.22434057821355</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.10659478817508</v>
+        <v>34.80755241410659</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>18.9853010615108</v>
+        <v>24.74006813674461</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.48217699221836</v>
+        <v>40.99058522657037</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.89073514780047</v>
+        <v>44.66270064173915</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.10277587082262</v>
+        <v>43.37834334824297</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.71949236006254</v>
+        <v>52.10662167398199</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.94615094898757</v>
+        <v>55.21800177456472</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.03729033863809</v>
+        <v>17.21257322606231</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.69143352950416</v>
+        <v>40.75117651178921</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.39166386169781</v>
+        <v>46.8783514797823</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.90399821837894</v>
+        <v>4.271166465530701</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.66659639750051</v>
+        <v>37.34756174245924</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.12144736447885</v>
+        <v>43.61373795053333</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.21753328012031</v>
+        <v>3.563840385763452</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.15461319681569</v>
+        <v>26.2933881161846</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.6738158681827</v>
+        <v>33.68682997565485</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.49924092891963</v>
+        <v>21.13993563287869</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.03518208869329</v>
+        <v>39.66309343910193</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.45361447792433</v>
+        <v>44.91310180431431</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.69987850129125</v>
+        <v>45.34710266705237</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.35116074904227</v>
+        <v>56.01416620695039</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.58717598305238</v>
+        <v>60.69271604705787</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.62034205639088</v>
+        <v>16.88959841676847</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.32106216697843</v>
+        <v>44.53752130060346</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.03346890394299</v>
+        <v>52.1328196234406</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.52870131395751</v>
+        <v>6.44919859193304</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.23077612364869</v>
+        <v>41.50288675718737</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.67890027184815</v>
+        <v>48.82173795328879</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.99773419653458</v>
+        <v>5.908288758822028</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>32.87279265970908</v>
+        <v>30.79044744985242</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.38507340323972</v>
+        <v>39.43624806508213</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.24518234123601</v>
+        <v>26.34689875413826</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.72338809477699</v>
+        <v>46.82428034681685</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.13516185150961</v>
+        <v>53.13662369388976</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.43487248506265</v>
+        <v>55.75688319510666</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.04003555014133</v>
+        <v>66.77973475789855</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.27066039668388</v>
+        <v>71.57832746548041</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.33691832821</v>
+        <v>24.55001289504586</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.96718059460834</v>
+        <v>54.93302008150832</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>42.67197181406382</v>
+        <v>63.72494287970629</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>14.66385524966744</v>
+        <v>-17.40629971601675</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.37909246740456</v>
+        <v>10.28488291754432</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.82181516223561</v>
+        <v>14.83141986073038</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.89507682874604</v>
+        <v>-15.84194119180219</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.78327591546229</v>
+        <v>1.130526161507216</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.28974474305891</v>
+        <v>6.715407365532933</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.18204866902839</v>
+        <v>-1.481496291186975</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.67235905996687</v>
+        <v>12.02070245312703</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.07899280375957</v>
+        <v>15.70145518692253</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.2859991440643</v>
+        <v>13.95296476042803</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.8967890768423</v>
+        <v>21.37237676370896</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.12221165480559</v>
+        <v>24.62263504300473</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.24608764611305</v>
+        <v>-10.33625465172992</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.89193925898156</v>
+        <v>10.04083704914038</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.5898284437711</v>
+        <v>16.04185563846957</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.13384210881573</v>
+        <v>-14.97418824861589</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.88918644399412</v>
+        <v>15.11267002667867</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.34227219780381</v>
+        <v>21.47395907382766</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.3912663318298</v>
+        <v>-17.78830870497642</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.32113854087834</v>
+        <v>1.815966550741294</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.83829806748202</v>
+        <v>9.296039618173133</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>17.67738224154997</v>
+        <v>-1.442036712732143</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.20666640171922</v>
+        <v>14.31076944195402</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.62321876059652</v>
+        <v>19.64393396814757</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.86422275421287</v>
+        <v>19.34308633123938</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.50949157127569</v>
+        <v>28.65685818371652</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.74430548099951</v>
+        <v>33.53569514402548</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.81034665509081</v>
+        <v>-7.271708713114151</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.50266866044546</v>
+        <v>17.16798224803232</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.21278659316386</v>
+        <v>24.73418420771852</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.83411715120356</v>
+        <v>-10.61074196758367</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.52881468736575</v>
+        <v>21.51795000401147</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.97522931020211</v>
+        <v>28.87576788962038</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.24839948310012</v>
+        <v>-13.24350800785508</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.11611415067083</v>
+        <v>8.583392865465722</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.62641546818488</v>
+        <v>17.2524028471051</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.50019139160553</v>
+        <v>5.987151688778724</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.97161081021422</v>
+        <v>23.75747039973076</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.38156360116241</v>
+        <v>30.09673326248297</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.67638582023829</v>
+        <v>31.96290251283708</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.2753872534582</v>
+        <v>41.66594872071607</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.5048709189585</v>
+        <v>46.65845071271512</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.60367278476867</v>
+        <v>2.607626813485659</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.2253937068034</v>
+        <v>29.84709678963896</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>38.92796685669326</v>
+        <v>38.54912144406188</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.93013736227489</v>
+        <v>-7.114243813060295</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.67252750781424</v>
+        <v>22.14269544985403</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>23.12013571313536</v>
+        <v>26.35789052483741</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>15.17351302965688</v>
+        <v>-5.141904919592822</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.08969382754041</v>
+        <v>13.46131151617871</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.60131005494921</v>
+        <v>18.65494198849431</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.46368147102482</v>
+        <v>10.03926540462797</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.98004834191153</v>
+        <v>24.97537048369583</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.39148406138813</v>
+        <v>28.30961941541991</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.59046319741162</v>
+        <v>26.24722619377653</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.22318243632704</v>
+        <v>34.37352594639643</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.45253138521005</v>
+        <v>37.45595706863933</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.53448529908353</v>
+        <v>0.727268495291618</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.21202202643866</v>
+        <v>22.79552529202087</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.91568613245022</v>
+        <v>28.34104522986589</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.42232539061329</v>
+        <v>-1.397437919015179</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.20499481406616</v>
+        <v>30.26092462890242</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.66297191288969</v>
+        <v>36.24039341579841</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>17.69203992565757</v>
+        <v>-3.791436364780978</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.65007225099171</v>
+        <v>17.44427804670537</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.17238402207615</v>
+        <v>24.47449303783102</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.98136998441596</v>
+        <v>13.43251786310406</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.53687732039214</v>
+        <v>30.62095245149655</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.95823584086961</v>
+        <v>35.556127330124</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.19135178958543</v>
+        <v>35.17372280085254</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.85870561038352</v>
+        <v>45.20210193206586</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.09744924909903</v>
+        <v>49.90289706387435</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.12124880163914</v>
+        <v>7.350173364702474</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.84545489164635</v>
+        <v>33.49010175924541</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.56135414404599</v>
+        <v>40.54036551324362</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.1390674435916</v>
+        <v>1.729413173619957</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.86081876901249</v>
+        <v>35.42645114388098</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.31212555331916</v>
+        <v>42.44320875031573</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.56601845824378</v>
+        <v>-0.5238982390058524</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.46161236382182</v>
+        <v>22.93149937115166</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.97706447847969</v>
+        <v>31.19521614436963</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.82095404741195</v>
+        <v>19.60122706915953</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.31833706393147</v>
+        <v>38.80414704107407</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>32.73309316674587</v>
+        <v>44.78485946460858</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.02044379649676</v>
+        <v>46.59132768600988</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>37.64134825350708</v>
+        <v>56.9941958685914</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>38.87476650917848</v>
+        <v>61.81242878758763</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.93152925933133</v>
+        <v>16.0162522693155</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.5848094412982</v>
+        <v>44.96011402850012</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.29316453912841</v>
+        <v>53.18094078921014</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.66325839905333</v>
+        <v>-15.69462024533476</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.38683947767738</v>
+        <v>11.87492527034742</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.83064108034728</v>
+        <v>16.18994886255197</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.91117915695115</v>
+        <v>-13.89998489805325</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.80798318807523</v>
+        <v>2.847370949688891</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.31563649132909</v>
+        <v>8.164181714975456</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.19695558535397</v>
+        <v>0.5331233208281141</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.69527709172717</v>
+        <v>13.83000472791946</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.10302568958301</v>
+        <v>17.2740664037448</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.30637988522322</v>
+        <v>15.78489659660205</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.92386234160972</v>
+        <v>23.0798782207282</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.14978779831214</v>
+        <v>26.10159591496597</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.25827371893166</v>
+        <v>-8.128345349989633</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.91388725156089</v>
+        <v>11.87710994235284</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.61306134592794</v>
+        <v>17.5767614235015</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.12357158922816</v>
+        <v>-15.92354420653517</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.88727493766697</v>
+        <v>14.02532547405436</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.34144473937841</v>
+        <v>20.13738242133861</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>17.39750494327003</v>
+        <v>-18.56826331287087</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.33599817027762</v>
+        <v>0.789547509897524</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.85434708550575</v>
+        <v>7.982060221906043</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.68245460518271</v>
+        <v>-2.191727560735199</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.21976447233843</v>
+        <v>13.33730156573589</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.63743614340981</v>
+        <v>18.41642535579336</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.87469872426191</v>
+        <v>18.50176020720972</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.52667629687598</v>
+        <v>27.68006447366558</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.76199590603806</v>
+        <v>32.33265732296573</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.8126465218425</v>
+        <v>-7.697217491365873</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.51474822784511</v>
+        <v>16.35093248359961</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.22615709730725</v>
+        <v>23.59558131453215</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.82056239906133</v>
+        <v>-10.11854223068332</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.52359559981382</v>
+        <v>21.89840219234179</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.97098315333604</v>
+        <v>29.0276708908533</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.25124701241367</v>
+        <v>-12.60148657944243</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.12755857890134</v>
+        <v>9.008487598762709</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.63893058207676</v>
+        <v>17.41241692891601</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.50193156432147</v>
+        <v>6.712499711486949</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.9813547935268</v>
+        <v>24.28448742579649</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.39231473725854</v>
+        <v>30.38968464015113</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>32.68353962638523</v>
+        <v>32.62018664502364</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.28923849768334</v>
+        <v>42.18940014436541</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>38.51913345526471</v>
+        <v>46.95586172229824</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.60262383628041</v>
+        <v>3.627034828553949</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.23409392057903</v>
+        <v>30.51014579385222</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>39.93782712393245</v>
+        <v>38.90581761652874</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.41662377093502</v>
+        <v>-25.97979720524144</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.10797484178038</v>
+        <v>0.6468899593139916</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.54341646527654</v>
+        <v>4.815254999604718</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.62151959293468</v>
+        <v>-24.70713056737947</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.48511177430873</v>
+        <v>-8.860007695788937</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.98399335378961</v>
+        <v>-3.731911085872479</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.90571929153101</v>
+        <v>-10.83944926046702</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.37307776375611</v>
+        <v>1.671680554934341</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.77262911173689</v>
+        <v>4.965144128250451</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.96800450458712</v>
+        <v>3.055621218580274</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.55984794880028</v>
+        <v>10.03085218931625</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.7787491966088</v>
+        <v>13.08400123357886</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.93975840276324</v>
+        <v>-20.08376640260002</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.55788655456369</v>
+        <v>-1.064103209752837</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.24722078413332</v>
+        <v>4.385627114001828</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.88152079863655</v>
+        <v>-23.64402721072736</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.61282930709725</v>
+        <v>5.333090115432203</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.05859088141825</v>
+        <v>11.28468783241282</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.11243187888533</v>
+        <v>-26.70625349310227</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.0175409495989</v>
+        <v>-8.281745078479513</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.52706836112617</v>
+        <v>-1.292533550490067</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.39581853547516</v>
+        <v>-10.88911040881636</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.90200440956031</v>
+        <v>3.826006108654575</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.3114326070058</v>
+        <v>8.741820829377001</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.54054992113574</v>
+        <v>8.408436198567145</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.16674437456808</v>
+        <v>17.245841074271</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.39499172576708</v>
+        <v>21.92928971598662</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.49831931528827</v>
+        <v>-17.00671216842609</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.16274423330208</v>
+        <v>6.007500249633743</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.86425606510948</v>
+        <v>12.99354316042763</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.63331697783439</v>
+        <v>-17.48466481730014</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.30431192713961</v>
+        <v>13.55820044790076</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.74342615958414</v>
+        <v>20.51755304909312</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.02124189724515</v>
+        <v>-20.39208223585273</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.86453260114493</v>
+        <v>0.282488712643751</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.36722441831178</v>
+        <v>8.47133380540712</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.27051988225738</v>
+        <v>-1.652580948310032</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.71915769226732</v>
+        <v>15.10321120273696</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.12200715489336</v>
+        <v>21.03510892080419</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.40496739858398</v>
+        <v>22.83143016497247</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.98515883925815</v>
+        <v>32.05772210273016</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.20808207916414</v>
+        <v>36.85453500321771</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.34340714660943</v>
+        <v>-5.358166195016342</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.93761277923895</v>
+        <v>20.48376204664986</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>37.6316066285153</v>
+        <v>28.60718109002612</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.83599636697441</v>
+        <v>-7.028662130249881</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.61536683490388</v>
+        <v>20.82585251397454</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.08740066074972</v>
+        <v>25.58692840966534</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.14880799111611</v>
+        <v>-4.619299670868692</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.10256777179483</v>
+        <v>12.18402259228791</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.63992179206486</v>
+        <v>18.03390043979122</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.43437496362723</v>
+        <v>9.520234514679498</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.9856725150383</v>
+        <v>22.86018353932671</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.42108559059171</v>
+        <v>26.75125608834786</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.67609427441446</v>
+        <v>25.7395542862528</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.33937873001513</v>
+        <v>33.16361290649543</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.59046139419809</v>
+        <v>36.83844510066231</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.60072471533777</v>
+        <v>1.935469874554752</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.32075154238701</v>
+        <v>21.95671989173293</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.05338959122564</v>
+        <v>28.34123970517466</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.33205446873409</v>
+        <v>-7.205143475697408</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.15205775212181</v>
+        <v>23.04375437442271</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.63464997298413</v>
+        <v>29.61698161848083</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.67118713458483</v>
+        <v>-9.403143055167334</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.66716959971905</v>
+        <v>10.03415273187911</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.21541740377283</v>
+        <v>17.7740470863635</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.95581848093013</v>
+        <v>6.711314550192572</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.54660471544983</v>
+        <v>22.30162734799042</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.99212458470881</v>
+        <v>27.83957471191101</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.28149391895103</v>
+        <v>28.41860154205222</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.9797566871536</v>
+        <v>37.80679510410446</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.24042919932526</v>
+        <v>43.08122125354647</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.19195787595102</v>
+        <v>2.21458363411055</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.95906121566298</v>
+        <v>26.33667066887191</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.7041611470657</v>
+        <v>34.26874778890669</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.91690883415475</v>
+        <v>-3.583175526447505</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.67600057412353</v>
+        <v>28.71219233895134</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.15152116337543</v>
+        <v>36.3160181699881</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.4128569480701</v>
+        <v>-5.499291039757352</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.3464345667791</v>
+        <v>16.16519189897007</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.88739903358597</v>
+        <v>25.13673568809699</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.66266827672107</v>
+        <v>13.50558445078577</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.19535965548264</v>
+        <v>31.11706960565884</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.63388556787503</v>
+        <v>37.6975408642395</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.97655474170018</v>
+        <v>40.50648090692978</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>41.62837766486759</v>
+        <v>50.2400076096731</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>42.88342699953924</v>
+        <v>55.63675674475525</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.86892791102888</v>
+        <v>11.48076681047055</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>42.56513964352483</v>
+        <v>38.41249205867972</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>44.3022141752836</v>
+        <v>47.52419418483497</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.59885911737914</v>
+        <v>-1.995637094959559</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.32457163981161</v>
+        <v>26.79859558401195</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.76817111737341</v>
+        <v>31.27675045256366</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.86589624815825</v>
+        <v>-0.07569824209133458</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.76502928316594</v>
+        <v>18.06675639025548</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.27240423033771</v>
+        <v>23.566858894412</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.14963670336294</v>
+        <v>14.99917004365145</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.65013674140511</v>
+        <v>29.52853111647997</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.05763113302007</v>
+        <v>33.13178289728253</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.26216333050708</v>
+        <v>31.14551197575265</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.88096140178752</v>
+        <v>39.04421324574399</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.10699106204985</v>
+        <v>42.20600232690695</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.20636643552573</v>
+        <v>5.932075372575174</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.86453516594943</v>
+        <v>27.56603048539997</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.56337949218143</v>
+        <v>33.47992664126932</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.05583707645572</v>
+        <v>-2.322925448604149</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.82162601955184</v>
+        <v>28.84628216439152</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.27558157131738</v>
+        <v>35.11545559564323</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.34896492385154</v>
+        <v>-4.823814328354914</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.28974022468881</v>
+        <v>15.92386612954192</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.80779771581334</v>
+        <v>23.29184453263176</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.63186727468698</v>
+        <v>12.19632949898665</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.17131156520606</v>
+        <v>28.95380729436963</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.58871707293813</v>
+        <v>34.18531105337294</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.82717790455082</v>
+        <v>33.77848516331047</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.48043557668654</v>
+        <v>43.56139853770665</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>32.71585023026201</v>
+        <v>48.35209482982626</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.75746270859612</v>
+        <v>6.288080963880407</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.4620675321267</v>
+        <v>31.95724777491253</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.17313151725692</v>
+        <v>39.40836680213231</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.69094949219197</v>
+        <v>0.4447548933461185</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.39586841682205</v>
+        <v>33.65660528536327</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.84310562188608</v>
+        <v>40.94085309726916</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.1403841868697</v>
+        <v>-1.882995443193636</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.01876778150952</v>
+        <v>21.08826321704849</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.52991656886746</v>
+        <v>29.66501516517432</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.38897194512353</v>
+        <v>18.01542715010438</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.87033362506016</v>
+        <v>36.79140976386239</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.28109131164287</v>
+        <v>43.04666749294954</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>33.57362543409617</v>
+        <v>44.82521961348891</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38.18043785618568</v>
+        <v>54.99379860681549</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>39.41050546368839</v>
+        <v>59.90351715840279</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.48557890676732</v>
+        <v>14.5961457128858</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.11931698336338</v>
+        <v>43.06920599508479</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>40.82278101807236</v>
+        <v>51.66952998485689</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>21.47027393344655</v>
+        <v>0.4796140140896981</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.19529547509087</v>
+        <v>29.98000303948371</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.6503410369931</v>
+        <v>34.86173716309305</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>20.81808700635684</v>
+        <v>3.846310910890221</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.71591900058113</v>
+        <v>22.43369044046807</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.23553705250957</v>
+        <v>28.42183158804526</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.08707009074809</v>
+        <v>18.57973680001584</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.58619990412642</v>
+        <v>33.49926734166627</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.00503412222945</v>
+        <v>37.50985289206799</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.27051753085521</v>
+        <v>36.21025011507783</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.88983405892078</v>
+        <v>44.42344968109903</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.12650536274049</v>
+        <v>48.15743964130198</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.19877822828673</v>
+        <v>11.08134877082482</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.85571837285742</v>
+        <v>33.03843060079481</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.56832560297051</v>
+        <v>39.60891266641557</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.92783431237066</v>
+        <v>0.7736664197634404</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.69300698475924</v>
+        <v>32.68096840614606</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.1584488227494</v>
+        <v>39.35368815591549</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.30146482911316</v>
+        <v>-0.4684261167200816</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.24101992795125</v>
+        <v>20.76612472290764</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.77136320213106</v>
+        <v>28.6190863079338</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.56959146417658</v>
+        <v>16.25794749186587</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.10774305866501</v>
+        <v>33.43980312559778</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.53652726748024</v>
+        <v>39.0752425455397</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.83602759252612</v>
+        <v>39.46965938192228</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.48992285153543</v>
+        <v>49.66737938632397</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.73604319525077</v>
+        <v>54.98951290026401</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.75033415791733</v>
+        <v>11.94642037261467</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.45379255672871</v>
+        <v>38.02381445509542</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.17867002584508</v>
+        <v>46.11365472427684</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.36230097766344</v>
+        <v>2.428572395650658</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.06706988660744</v>
+        <v>36.34746786607604</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.52551968979039</v>
+        <v>44.06911641768589</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.89037956474975</v>
+        <v>1.45680597024208</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.76804725045276</v>
+        <v>24.88038298028056</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.29118969742765</v>
+        <v>33.98523378137368</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>31.1240649795354</v>
+        <v>21.04374080482892</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.60460484901808</v>
+        <v>40.21288159812723</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>38.02647415232549</v>
+        <v>46.9088805143753</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.37844766853875</v>
+        <v>49.5563518777453</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>42.98629574840257</v>
+        <v>60.08422665494621</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.22689124707766</v>
+        <v>65.53372504166377</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>37.27534339630644</v>
+        <v>19.23875800782236</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.90849611250016</v>
+        <v>48.08824761236799</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>45.62543864633676</v>
+        <v>57.37751035576457</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.53179352681559</v>
+        <v>-1.42321847238836</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.41931057586097</v>
+        <v>26.51823847514248</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.90864658009355</v>
+        <v>31.40225323417163</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.7204516386392</v>
+        <v>1.880889616587897</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.78577531400334</v>
+        <v>18.88275228326168</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.34101567895041</v>
+        <v>24.85820405659188</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.04223001789209</v>
+        <v>15.69505127189186</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.69757196883152</v>
+        <v>29.22896833219315</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.14961776029828</v>
+        <v>33.24309557090147</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.44351861235343</v>
+        <v>31.70593607462131</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.19509880998719</v>
+        <v>39.20766553583438</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.46098392192543</v>
+        <v>43.07423136802434</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.40397514352172</v>
+        <v>7.770728233733031</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.24992613005392</v>
+        <v>27.95745453572827</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.00274239806133</v>
+        <v>34.51028415029423</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.04462278715456</v>
+        <v>0.3630399382973764</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.97339905071452</v>
+        <v>30.66939699353037</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>23.47337397104627</v>
+        <v>37.34293758444545</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.25932182954665</v>
+        <v>-0.8564734082939403</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.36751905011401</v>
+        <v>18.74670955841779</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.93373385586747</v>
+        <v>26.58720920209459</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.58044693249681</v>
+        <v>14.92121111137442</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.27588809724146</v>
+        <v>30.67735894880805</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.73811409173831</v>
+        <v>36.31659164631809</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.06698599850408</v>
+        <v>36.40631288017827</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.85410792397973</v>
+        <v>45.86630034230576</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.1296628672595</v>
+        <v>51.31445944930111</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.01318116329088</v>
+        <v>10.0738487454981</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.90693282684128</v>
+        <v>34.31858739367797</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.6723057809328</v>
+        <v>42.39592587206425</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.85568699627394</v>
+        <v>2.33734787216541</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.72234105366717</v>
+        <v>34.64908706451543</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.21532045753898</v>
+        <v>42.35045289165506</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.23217616326918</v>
+        <v>1.39848986996186</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.27671737080477</v>
+        <v>23.18388859460922</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.83573983812203</v>
+        <v>32.25275017519792</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>23.5178212185906</v>
+        <v>20.01562344266905</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.15400641775793</v>
+        <v>37.75234887937047</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.60931889641807</v>
+        <v>44.43159666202289</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.99169250864148</v>
+        <v>46.76474381424106</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.73144846566286</v>
+        <v>56.54298572128422</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.00150322574554</v>
+        <v>62.1169579744881</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.91846726702145</v>
+        <v>17.64868999863295</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.73990601283158</v>
+        <v>44.65090730374918</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>38.49735636500233</v>
+        <v>53.90590517030869</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.41425940244021</v>
+        <v>-4.967455433832896</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.17494146860437</v>
+        <v>24.88567091014064</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.63131621006432</v>
+        <v>29.26357451563306</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>17.71334859744929</v>
+        <v>-2.879443840196164</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.64840339170066</v>
+        <v>16.21607546273711</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.16917162153783</v>
+        <v>21.62489807760148</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>18.99795321961192</v>
+        <v>12.50509426717508</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.5318974973403</v>
+        <v>27.86317104715528</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.95187169526708</v>
+        <v>31.36107391246654</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.18033342251155</v>
+        <v>29.81679417697552</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.82752544634915</v>
+        <v>38.09506482731537</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>32.0648571675167</v>
+        <v>41.33301550226456</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.11138031980055</v>
+        <v>3.82385610403762</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.8101060963495</v>
+        <v>26.51815578162448</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.52401301062112</v>
+        <v>32.36266160152373</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.87784872639497</v>
+        <v>-5.155039864234009</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.67882954534823</v>
+        <v>27.09890316631164</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.14563801948009</v>
+        <v>33.2705532894537</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>20.20307942996037</v>
+        <v>-7.612000138475224</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.18000949056736</v>
+        <v>14.11924391251376</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.7115406365175</v>
+        <v>21.39599959497935</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>21.4868346846239</v>
+        <v>9.767813869704639</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.05994153823491</v>
+        <v>27.37947396131646</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.4899012862032</v>
+        <v>32.50567600856515</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.75248296183488</v>
+        <v>32.58530624980548</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.4343493647568</v>
+        <v>42.78704006300281</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.68114698221353</v>
+        <v>47.6435757498881</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.66955746311339</v>
+        <v>4.265557371472898</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.41497636365119</v>
+        <v>31.05049765204766</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.1411953777241</v>
+        <v>38.42227832984473</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.45570787925841</v>
+        <v>-3.100431724945278</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.19552060798383</v>
+        <v>31.19596731310305</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.65547437131149</v>
+        <v>38.40811003460614</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.93744964250129</v>
+        <v>-5.380993136320292</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.85168855053198</v>
+        <v>18.57307225057674</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.37616851295477</v>
+        <v>27.08904692075989</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.18661000817399</v>
+        <v>14.89201101804118</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.70135552558389</v>
+        <v>34.52207921156628</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.12453520039251</v>
+        <v>40.69817059431044</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.44104116230401</v>
+        <v>43.00438860204855</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.07623543467547</v>
+        <v>53.58176047356766</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.31760909335094</v>
+        <v>58.55991848152408</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.34022057886091</v>
+        <v>11.92381629818443</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.01443130547912</v>
+        <v>41.51770555476212</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.73288841960859</v>
+        <v>50.07219793158747</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.9069281262274</v>
+        <v>-13.41602232733009</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.59763150108711</v>
+        <v>14.05812837827586</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.04472644148975</v>
+        <v>18.72288907827752</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.22086266695078</v>
+        <v>-10.77099542317595</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.08336841567609</v>
+        <v>5.842350665974418</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.59463908553506</v>
+        <v>11.58852875594483</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.48708656207499</v>
+        <v>3.053845361023289</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.95330803923459</v>
+        <v>16.24907469395027</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.36435656271409</v>
+        <v>20.05873100451356</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.62082074716746</v>
+        <v>18.714681990193</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.21261751426814</v>
+        <v>25.86938758766327</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.44240958117078</v>
+        <v>29.47627952324728</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.57088727144602</v>
+        <v>-5.144764273902695</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.18786557162403</v>
+        <v>14.66663950596253</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.89110083826218</v>
+        <v>20.93724588542332</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>21.35365040035855</v>
+        <v>-10.26637936464567</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.08435509480438</v>
+        <v>19.63124648294214</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.54184361264441</v>
+        <v>26.0902681623343</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>20.69351195198507</v>
+        <v>-12.06120888005044</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.59758528978854</v>
+        <v>7.21883332947376</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.11957967964852</v>
+        <v>14.83786086299312</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.95882279916793</v>
+        <v>3.742376649999361</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.46392013772285</v>
+        <v>19.21773256619482</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.88491795713329</v>
+        <v>24.65921398904965</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.1752153871671</v>
+        <v>24.82709851508863</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.80145056565093</v>
+        <v>33.93797910877836</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.04068087066324</v>
+        <v>39.12028612365688</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.11139763123407</v>
+        <v>-1.440905930475068</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.77472209476414</v>
+        <v>22.48689632540686</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.49022407638098</v>
+        <v>30.29565702960584</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.84539206837379</v>
+        <v>-6.786962361983893</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.51615869981273</v>
+        <v>25.12577129285926</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.96665349473677</v>
+        <v>32.59960140006218</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.34025389984847</v>
+        <v>-8.357986311664341</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.18291746918046</v>
+        <v>13.11648759062181</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.6977112895832</v>
+        <v>21.94724153479632</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.57118242568355</v>
+        <v>10.2966694116504</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.01911124917016</v>
+        <v>27.76333729877975</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.43319559134557</v>
+        <v>34.23052063527571</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.77599636570852</v>
+        <v>36.58222729630621</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.35650938775664</v>
+        <v>46.05014174164117</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>41.59019380560944</v>
+        <v>51.3495192750371</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.69428869466948</v>
+        <v>7.556461553830946</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.28785360339045</v>
+        <v>34.25328025304366</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.99541973353881</v>
+        <v>43.22521472861177</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>13.51641805721485</v>
+        <v>-8.636664854383131</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.3999790949444</v>
+        <v>18.97564635568851</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.88900705054957</v>
+        <v>23.92672606086733</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>12.7066915630137</v>
+        <v>-5.513889853190115</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>18.76792886017105</v>
+        <v>11.14350340922089</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.32284721761076</v>
+        <v>17.19805845023777</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>14.02750944637942</v>
+        <v>8.118393817489498</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>19.67904339753818</v>
+        <v>21.34907186944478</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.13078925343854</v>
+        <v>25.43340128120704</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.42720953315551</v>
+        <v>24.07789016949643</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.17562622939707</v>
+        <v>31.43922480074229</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.44128549938861</v>
+        <v>35.32585602333216</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.38925622265506</v>
+        <v>0.4251859645252942</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.23058322548607</v>
+        <v>20.25034012202854</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.98303618263322</v>
+        <v>26.88347199605625</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.02410021646948</v>
+        <v>-7.179918897662013</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.94889287128271</v>
+        <v>22.79967984171044</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>23.44856405106568</v>
+        <v>29.55196407626438</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.24037476860071</v>
+        <v>-8.575882217637719</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.34445716490869</v>
+        <v>10.68624294886302</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.91035469542041</v>
+        <v>18.61936858099177</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>16.56053420301887</v>
+        <v>7.012497268186806</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.25214077922863</v>
+        <v>22.468327497266</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>23.71407128593846</v>
+        <v>28.18965750510551</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.04543332970523</v>
+        <v>28.42252576819564</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.82936765812694</v>
+        <v>37.74215409588496</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.10470139943465</v>
+        <v>43.21363397907366</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.99325217024323</v>
+        <v>2.367404662841519</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.88234798456298</v>
+        <v>26.25259520585268</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.64736287434895</v>
+        <v>34.42472059102005</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.82637748587234</v>
+        <v>-4.810760869912905</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.68909488317784</v>
+        <v>27.17716725581964</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.18175404705278</v>
+        <v>34.95129621763313</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.2043201888707</v>
+        <v>-5.919873654671026</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.2447958409887</v>
+        <v>15.52768147055486</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.80348385218996</v>
+        <v>24.68251733291203</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.48900971551923</v>
+        <v>12.50834950403489</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.12140580597011</v>
+        <v>29.94761811854084</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.57640699119837</v>
+        <v>36.70312845996833</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.96118811065605</v>
+        <v>39.17335129020714</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.69778723652035</v>
+        <v>48.81338463042427</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.96760629894339</v>
+        <v>54.40869031169873</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.88961570204986</v>
+        <v>10.33239526457363</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.70645541607546</v>
+        <v>36.97714565338582</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>38.4635280805216</v>
+        <v>46.3218061035305</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.60499774799951</v>
+        <v>1.676320592832248</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.36822826851277</v>
+        <v>30.31147317817737</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>27.83351320131389</v>
+        <v>34.88317431247462</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>19.93763661656166</v>
+        <v>4.917618190076521</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.87481227231589</v>
+        <v>22.71371068333314</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>27.40510010138334</v>
+        <v>28.33923452091312</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.21870723125269</v>
+        <v>19.57357499332232</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.75455821352981</v>
+        <v>33.81243053783282</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.1833999749263</v>
+        <v>37.51904565428613</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.43080451312089</v>
+        <v>36.10126739872058</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>33.08069363849164</v>
+        <v>43.74994152344362</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.32564462029313</v>
+        <v>47.1393437440988</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.35181298114202</v>
+        <v>11.5203647429603</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.05314122067985</v>
+        <v>32.55006001883004</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>35.77777097395181</v>
+        <v>38.77400976715838</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.08456193078462</v>
+        <v>1.088422146482003</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.88827680925181</v>
+        <v>32.10455315072881</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.36406054393146</v>
+        <v>38.44802836093599</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>22.44336548939827</v>
+        <v>-0.2374024751493629</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.42260885569287</v>
+        <v>20.17622542658199</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.96372864834624</v>
+        <v>27.64715665553781</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.72351073038574</v>
+        <v>16.38264858175872</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.29870511625473</v>
+        <v>32.8580197153274</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.73759623840896</v>
+        <v>38.17313472814137</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>31.01925674754114</v>
+        <v>38.36616634626525</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>35.70398811793466</v>
+        <v>47.9411841017545</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>36.9584718494053</v>
+        <v>52.90661935165566</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.92620413634512</v>
+        <v>11.43862221159786</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.67443680933325</v>
+        <v>36.53712956650312</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>38.41145812922975</v>
+        <v>44.26456704884224</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.63454112493491</v>
+        <v>3.428903982250549</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.37750596061912</v>
+        <v>36.44708449442329</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.84619921239795</v>
+        <v>43.82112796134562</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.14923068358627</v>
+        <v>2.29165533949881</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.06623328074583</v>
+        <v>24.88436684220485</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.60005020409063</v>
+        <v>33.58556025345694</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.39475243247297</v>
+        <v>21.78708144884783</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>35.91200506679614</v>
+        <v>40.24008663414673</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>37.34388303440542</v>
+        <v>46.5972728467447</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>37.67880316269682</v>
+        <v>49.00326921813026</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>42.31722824736523</v>
+        <v>58.92211269376556</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>43.56606549069567</v>
+        <v>64.008345880725</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.56781752802253</v>
+        <v>19.29512787939466</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>43.24534384552805</v>
+        <v>47.1506459025025</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>44.97431936650156</v>
+        <v>56.05657271546535</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>19.30313129848256</v>
+        <v>-4.794996745289644</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.07064323136463</v>
+        <v>25.18419252569692</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.53003354383391</v>
+        <v>29.60994557678761</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>18.61881165205611</v>
+        <v>-2.376414008051743</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.56080304547453</v>
+        <v>16.85745177561311</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.08477513776461</v>
+        <v>22.32549354579431</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>19.90251895366993</v>
+        <v>12.89964234586335</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.44291248277737</v>
+        <v>28.38522109240181</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.86586770057321</v>
+        <v>31.93459292437623</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>27.10152440613845</v>
+        <v>30.42438514769723</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.75429496332793</v>
+        <v>38.70465771130503</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>32.99433042174369</v>
+        <v>42.02180551119925</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.0267957293895</v>
+        <v>4.34636174750619</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>32.73338958467107</v>
+        <v>27.17042383417935</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.4509012957505</v>
+        <v>33.10374430970376</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>21.77136722573785</v>
+        <v>-4.884177270389856</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>27.57924934448007</v>
+        <v>27.49132591361658</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.04909357773655</v>
+        <v>33.71232566464528</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>21.11322333091949</v>
+        <v>-7.023107148984124</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.09716441277011</v>
+        <v>14.84244836407099</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.63192055659977</v>
+        <v>22.17965655850745</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>22.39606359685013</v>
+        <v>10.24818542683632</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>27.97568957715455</v>
+        <v>27.98353292137715</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.40864993582163</v>
+        <v>33.16249689283423</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.67850201754803</v>
+        <v>33.27379685403351</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>34.36601313315944</v>
+        <v>43.47932443350527</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>35.61553676923338</v>
+        <v>48.40922752401097</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.5897799068786</v>
+        <v>4.861968069294321</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>35.34314882849561</v>
+        <v>31.77397738750653</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.07299673295736</v>
+        <v>39.23493851222895</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.32386012036921</v>
+        <v>-3.235546991395516</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.07058173614969</v>
+        <v>31.16659563875858</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.53351768979803</v>
+        <v>38.4328039831114</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>27.82189747313304</v>
+        <v>-5.208891568944196</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.74316013478616</v>
+        <v>18.86216956195264</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.27080800000795</v>
+        <v>27.44426264611046</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.07010939991954</v>
+        <v>14.94925924808718</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.59138605602151</v>
+        <v>34.6874801176386</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.01751357826429</v>
+        <v>40.92121142792774</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>36.34112039820259</v>
+        <v>43.25410013472389</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>40.9819806925205</v>
+        <v>53.82426160246774</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>42.22603817804344</v>
+        <v>58.87938352293414</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.2346583966405</v>
+        <v>12.08512763641252</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.91683129674172</v>
+        <v>41.78567839025067</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>43.63885258592319</v>
+        <v>50.43708338958719</v>
       </c>
     </row>
   </sheetData>
